--- a/5_Bug_Reports/Bug_Report.xlsx
+++ b/5_Bug_Reports/Bug_Report.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\service-marketplace-manual-qa\5_Bug_Reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08A071A8-8703-46F2-8E56-A93787BB8306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="20490" windowHeight="10920" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +24,242 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="76">
+  <si>
+    <t>Bug ID</t>
+  </si>
+  <si>
+    <t>Test Case ID</t>
+  </si>
+  <si>
+    <t>Module</t>
+  </si>
+  <si>
+    <t>Bug Summary</t>
+  </si>
+  <si>
+    <t>Steps to Reproduce</t>
+  </si>
+  <si>
+    <t>Expected Result</t>
+  </si>
+  <si>
+    <t>Actual Result</t>
+  </si>
+  <si>
+    <t>Severity</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>BUG_01</t>
+  </si>
+  <si>
+    <t>TC_04</t>
+  </si>
+  <si>
+    <t>Login</t>
+  </si>
+  <si>
+    <t>Account not locked after multiple wrong passwords</t>
+  </si>
+  <si>
+    <t>Enter wrong password multiple times</t>
+  </si>
+  <si>
+    <t>Account should lock</t>
+  </si>
+  <si>
+    <t>No lockout implemented</t>
+  </si>
+  <si>
+    <t>High</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>BUG_02</t>
+  </si>
+  <si>
+    <t>TC_05</t>
+  </si>
+  <si>
+    <t>Service Discovery</t>
+  </si>
+  <si>
+    <t>Service category icons misaligned</t>
+  </si>
+  <si>
+    <t>Open home page</t>
+  </si>
+  <si>
+    <t>UI aligned properly</t>
+  </si>
+  <si>
+    <t>Icons overlapping</t>
+  </si>
+  <si>
+    <t>Low</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>BUG_03</t>
+  </si>
+  <si>
+    <t>TC_07</t>
+  </si>
+  <si>
+    <t>Booking</t>
+  </si>
+  <si>
+    <t>Booking confirmation email delayed</t>
+  </si>
+  <si>
+    <t>Book a service</t>
+  </si>
+  <si>
+    <t>Immediate confirmation</t>
+  </si>
+  <si>
+    <t>Email delayed &gt;10 mins</t>
+  </si>
+  <si>
+    <t>BUG_04</t>
+  </si>
+  <si>
+    <t>TC_08</t>
+  </si>
+  <si>
+    <t>System allows booking unavailable slot</t>
+  </si>
+  <si>
+    <t>Select unavailable slot</t>
+  </si>
+  <si>
+    <t>Should block booking</t>
+  </si>
+  <si>
+    <t>Booking succeeds</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>BUG_05</t>
+  </si>
+  <si>
+    <t>TC_09</t>
+  </si>
+  <si>
+    <t>Payment</t>
+  </si>
+  <si>
+    <t>Invoice not generated after payment</t>
+  </si>
+  <si>
+    <t>Complete payment</t>
+  </si>
+  <si>
+    <t>Invoice generated</t>
+  </si>
+  <si>
+    <t>No invoice</t>
+  </si>
+  <si>
+    <t>BUG_06</t>
+  </si>
+  <si>
+    <t>TC_11</t>
+  </si>
+  <si>
+    <t>Orders</t>
+  </si>
+  <si>
+    <t>Orders not sorted by latest</t>
+  </si>
+  <si>
+    <t>Open order history</t>
+  </si>
+  <si>
+    <t>Latest order first</t>
+  </si>
+  <si>
+    <t>Random order displayed</t>
+  </si>
+  <si>
+    <t>BUG_07</t>
+  </si>
+  <si>
+    <t>TC_12</t>
+  </si>
+  <si>
+    <t>Refund status not shown after cancellation</t>
+  </si>
+  <si>
+    <t>Cancel order</t>
+  </si>
+  <si>
+    <t>Refund status visible</t>
+  </si>
+  <si>
+    <t>No refund info</t>
+  </si>
+  <si>
+    <t>BUG_08</t>
+  </si>
+  <si>
+    <t>TC_14</t>
+  </si>
+  <si>
+    <t>Ratings</t>
+  </si>
+  <si>
+    <t>User can rate before service completion</t>
+  </si>
+  <si>
+    <t>Try rating early</t>
+  </si>
+  <si>
+    <t>Should restrict rating</t>
+  </si>
+  <si>
+    <t>Rating allowed</t>
+  </si>
+  <si>
+    <t>BUG_09</t>
+  </si>
+  <si>
+    <t>TC_15</t>
+  </si>
+  <si>
+    <t>Notifications</t>
+  </si>
+  <si>
+    <t>Push notification not received</t>
+  </si>
+  <si>
+    <t>Complete booking</t>
+  </si>
+  <si>
+    <t>Notification sent</t>
+  </si>
+  <si>
+    <t>No notification</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -28,13 +267,25 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -49,8 +300,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +582,340 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="4" max="4" width="36.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>25</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>32</v>
+      </c>
+      <c r="F4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4" t="s">
+        <v>27</v>
+      </c>
+      <c r="I4" t="s">
+        <v>17</v>
+      </c>
+      <c r="J4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>37</v>
+      </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" t="s">
+        <v>41</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>48</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="I6" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B7" t="s">
+        <v>50</v>
+      </c>
+      <c r="C7" t="s">
+        <v>51</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E7" t="s">
+        <v>53</v>
+      </c>
+      <c r="F7" t="s">
+        <v>54</v>
+      </c>
+      <c r="G7" t="s">
+        <v>55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>56</v>
+      </c>
+      <c r="B8" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" t="s">
+        <v>58</v>
+      </c>
+      <c r="E8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" t="s">
+        <v>60</v>
+      </c>
+      <c r="G8" t="s">
+        <v>61</v>
+      </c>
+      <c r="H8" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" t="s">
+        <v>17</v>
+      </c>
+      <c r="J8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" t="s">
+        <v>65</v>
+      </c>
+      <c r="E9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G9" t="s">
+        <v>68</v>
+      </c>
+      <c r="H9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I9" t="s">
+        <v>17</v>
+      </c>
+      <c r="J9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D10" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" t="s">
+        <v>73</v>
+      </c>
+      <c r="F10" t="s">
+        <v>74</v>
+      </c>
+      <c r="G10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H10" t="s">
+        <v>27</v>
+      </c>
+      <c r="I10" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>